--- a/console/Networking/iaas-network/aclMixinsXlsx/acl_subnetList.xlsx
+++ b/console/Networking/iaas-network/aclMixinsXlsx/acl_subnetList.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\18. ACL国际化内容翻译确认\4. 确认后-柴玉梅\2. 客户确认后-上传Github版\ACL国际化内容翻译确认-CT-C-GTCOM Comment1106-R\aclMixinsXlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -264,54 +269,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>No Subnet Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disassociated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Get List of Associated Subnet under ACL Successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Disassociate ACL’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>‘Your subnet will lose security protection after disassociation</t>
     </r>
   </si>
@@ -320,15 +277,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>No Subnet Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disassociated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建议修改为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disassociate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此处为动词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Get List of Associated Subnet under ACL Successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘Disassociate ACL’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Confirm to disassociate ACL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm to disassociate ACL from the subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Got list of subnets associated  with ACL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建议修改为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get lists  of  Subnets associated  with ACL successfully</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +370,35 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -364,8 +425,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,120 +781,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.44140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B9" numberStoredAsText="1"/>
   </ignoredErrors>
